--- a/Release/DB.xlsx
+++ b/Release/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId3"/>
@@ -28,6 +28,7 @@
     <sheet name="Evaluation Warning (11)" sheetId="19" r:id="rId16"/>
     <sheet name="Evaluation Warning (12)" sheetId="20" r:id="rId17"/>
     <sheet name="Evaluation Warning (13)" sheetId="21" r:id="rId18"/>
+    <sheet name="Evaluation Warning (14)" sheetId="22" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>Angel Pony Cake</t>
   </si>
@@ -531,7 +532,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,6 +544,10 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -1618,12 +1623,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337270b8-42c5-411e-9b68-0112c461e54a}">
   <dimension ref="A5"/>
   <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a3e3e35d-83e8-4907-b59d-92179895ef60}">
+  <dimension ref="A5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1687,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="N1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
